--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{966E3103-E6CB-48A2-A4A6-76337131A8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A99735D-7C68-44F7-9A06-D0A4D1640222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="3" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="2" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_Hlk210578957" localSheetId="1">'Sprint 2 '!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="79">
   <si>
     <t>HU ID</t>
   </si>
@@ -259,6 +260,15 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>Estimado</t>
   </si>
 </sst>
 </file>
@@ -399,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,6 +487,12 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,6 +508,3150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Burdown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 '!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$F$17:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$G$17:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F64A-4F6C-8C77-63B2DC5691D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 '!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$F$17:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$H$17:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F64A-4F6C-8C77-63B2DC5691D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="80935120"/>
+        <c:axId val="74229792"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="80935120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74229792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="74229792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80935120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Burdown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2 '!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2 '!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2 '!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA0B-402F-9957-B968DBF196D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2 '!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2 '!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2 '!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA0B-402F-9957-B968DBF196D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="79609328"/>
+        <c:axId val="74236032"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="79609328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74236032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="74236032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79609328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Burdown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3 '!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DC9-44D9-ACA7-476825F9B542}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3 '!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$G$14:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DC9-44D9-ACA7-476825F9B542}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1059880175"/>
+        <c:axId val="1252314159"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1059880175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1252314159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1252314159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059880175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2096518</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>753035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C919A0-EFA1-4D1F-B324-CD996BBC3626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90055</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166255</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEF9455-A36B-466A-9922-C53D35EA787A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>858982</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB5E1CF-292A-401B-A464-99BFA7051BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,9 +3951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7005A097-3D20-45B1-8762-77FC135B0ACD}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H14" sqref="A6:H14"/>
     </sheetView>
   </sheetViews>
@@ -804,7 +3964,7 @@
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
@@ -966,7 +4126,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="22">
-        <f>+G7</f>
+        <f t="shared" ref="F8:F14" si="0">+G7</f>
         <v>45901</v>
       </c>
       <c r="G8" s="22">
@@ -994,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="19">
-        <f>+G8</f>
+        <f t="shared" si="0"/>
         <v>45902</v>
       </c>
       <c r="G9" s="19">
@@ -1022,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="22">
-        <f>+G9</f>
+        <f t="shared" si="0"/>
         <v>45903</v>
       </c>
       <c r="G10" s="22">
@@ -1050,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="19">
-        <f>+G10</f>
+        <f t="shared" si="0"/>
         <v>45904</v>
       </c>
       <c r="G11" s="19">
@@ -1078,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="22">
-        <f>+G11</f>
+        <f t="shared" si="0"/>
         <v>45905</v>
       </c>
       <c r="G12" s="22">
@@ -1106,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="19">
-        <f>+G12</f>
+        <f t="shared" si="0"/>
         <v>45905</v>
       </c>
       <c r="G13" s="19">
@@ -1134,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="22">
-        <f>+G13</f>
+        <f t="shared" si="0"/>
         <v>45906</v>
       </c>
       <c r="G14" s="22">
@@ -1145,18 +4305,254 @@
         <v>35</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="18">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>45901</v>
+      </c>
+      <c r="G17" s="27">
+        <v>13</v>
+      </c>
+      <c r="H17" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3</v>
+      </c>
+      <c r="F18" s="22">
+        <v>45902</v>
+      </c>
+      <c r="G18" s="28">
+        <v>10</v>
+      </c>
+      <c r="H18" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19">
+        <v>45903</v>
+      </c>
+      <c r="G19" s="27">
+        <v>9</v>
+      </c>
+      <c r="H19" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <v>4</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45904</v>
+      </c>
+      <c r="G20" s="28">
+        <v>8</v>
+      </c>
+      <c r="H20" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>45905</v>
+      </c>
+      <c r="G21" s="27">
+        <v>6</v>
+      </c>
+      <c r="H21" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21">
+        <v>3</v>
+      </c>
+      <c r="F22" s="22">
+        <v>45905</v>
+      </c>
+      <c r="G22" s="28">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>7</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>45906</v>
+      </c>
+      <c r="G23" s="27">
+        <v>2</v>
+      </c>
+      <c r="H23" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <v>8</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22">
+        <v>45908</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7AD805-9F79-482F-9894-2D3904CEEE57}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,14 +4560,13 @@
     <col min="1" max="1" width="8.77734375" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="23" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +4586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
@@ -1380,17 +4775,157 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="19">
+        <v>45909</v>
+      </c>
+      <c r="F13" s="18">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="22">
+        <v>45910</v>
+      </c>
+      <c r="F14" s="21">
+        <v>18</v>
+      </c>
+      <c r="G14" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19">
+        <v>45912</v>
+      </c>
+      <c r="F15" s="18">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22">
+        <v>45914</v>
+      </c>
+      <c r="F16" s="21">
+        <v>8</v>
+      </c>
+      <c r="G16" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="19">
+        <v>45915</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4928B1D4-B006-4047-964D-C09CD7DEA272}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1400,8 +4935,8 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1664,8 +5199,176 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45915</v>
+      </c>
+      <c r="F14" s="5">
+        <f>+SUM(E6:E11)</f>
+        <v>22</v>
+      </c>
+      <c r="G14" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11">
+        <v>45916</v>
+      </c>
+      <c r="F15" s="6">
+        <f>+F14-E6</f>
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45917</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F19" si="0">+F15-E7</f>
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11">
+        <v>45919</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45921</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45922</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1673,8 +5376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1AFC42-F163-4781-B91C-41AD7CBCCCE1}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="A5:H11"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A99735D-7C68-44F7-9A06-D0A4D1640222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8DF48-BBAD-4C1E-9F8F-051762321E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="2" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="3" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_Hlk210578957" localSheetId="1">'Sprint 2 '!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>HU ID</t>
   </si>
@@ -154,27 +153,6 @@
     <t>FIN</t>
   </si>
   <si>
-    <t>Crear reglas de validación de restricciones</t>
-  </si>
-  <si>
-    <t>Diseñar interfaz para selección de restricciones</t>
-  </si>
-  <si>
-    <t>Implementar relación restricciones-alimentos</t>
-  </si>
-  <si>
-    <t>Validar menús contra restricciones</t>
-  </si>
-  <si>
-    <t>Pruebas unitarias e integración Sprint 2</t>
-  </si>
-  <si>
-    <t>Iniciado</t>
-  </si>
-  <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Falta</t>
   </si>
   <si>
@@ -223,21 +201,9 @@
     <t>HU7</t>
   </si>
   <si>
-    <t>Registrar medidas corporales</t>
-  </si>
-  <si>
-    <t>Incluye campos antropométricos y validación de entradas.</t>
-  </si>
-  <si>
     <t>HU8</t>
   </si>
   <si>
-    <t>Calcular indicadores de progreso</t>
-  </si>
-  <si>
-    <t>Requiere fórmulas biométricas y persistencia de resultados.</t>
-  </si>
-  <si>
     <t>Crear formulario para medidas corporales</t>
   </si>
   <si>
@@ -269,6 +235,57 @@
   </si>
   <si>
     <t>Estimado</t>
+  </si>
+  <si>
+    <t>Diseñar interfaz para registrar preferencias alimenticias</t>
+  </si>
+  <si>
+    <t>Realizar pruebas unitarias e integración del Sprint 1</t>
+  </si>
+  <si>
+    <t>Duracion (dias)</t>
+  </si>
+  <si>
+    <t>Restricción de alimentos según preferencias</t>
+  </si>
+  <si>
+    <t>Implica lógica de filtrado y generación dinámica de menús.</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>Diseñar e implementar interfaz para registro de restricciones alimenticias</t>
+  </si>
+  <si>
+    <t>Crear modelo y relación restricciones–alimentos en la base de datos</t>
+  </si>
+  <si>
+    <t>Desarrollar lógica de validación y filtrado de alimentos</t>
+  </si>
+  <si>
+    <t>Ajustar cálculo nutricional y generar menús personalizados</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias e integración del módulo de restricciones</t>
+  </si>
+  <si>
+    <t>HU4 - HU5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso </t>
+  </si>
+  <si>
+    <t>Creación de menús personalizados por el nutriólogo</t>
+  </si>
+  <si>
+    <t>Permite crear menús con varios alimentos clasificados por tipo (desayuno, almuerzo, cena). Base funcional del sistema de planificación.</t>
+  </si>
+  <si>
+    <t>Asignación de menús personalizados a usuarios</t>
+  </si>
+  <si>
+    <t>El sistema adapta los menús a las preferencias y objetivos del usuario, respetando restricciones alimenticias.</t>
   </si>
 </sst>
 </file>
@@ -310,7 +327,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,6 +514,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,28 +691,28 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>45901</c:v>
+                  <c:v>45931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45902</c:v>
+                  <c:v>45932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45903</c:v>
+                  <c:v>45933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45904</c:v>
+                  <c:v>45934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45905</c:v>
+                  <c:v>45935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45905</c:v>
+                  <c:v>45935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45906</c:v>
+                  <c:v>45936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45908</c:v>
+                  <c:v>45938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,28 +790,28 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>45901</c:v>
+                  <c:v>45931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45902</c:v>
+                  <c:v>45932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45903</c:v>
+                  <c:v>45933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45904</c:v>
+                  <c:v>45934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45905</c:v>
+                  <c:v>45935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45905</c:v>
+                  <c:v>45935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45906</c:v>
+                  <c:v>45936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45908</c:v>
+                  <c:v>45938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,7 +1134,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2 '!$F$12</c:f>
+              <c:f>'Sprint 2 '!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,31 +1157,31 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2 '!$E$13:$E$17</c:f>
+              <c:f>'Sprint 2 '!$E$14:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45909</c:v>
+                  <c:v>45938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45910</c:v>
+                  <c:v>45940</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45912</c:v>
+                  <c:v>45942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45914</c:v>
+                  <c:v>45944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45915</c:v>
+                  <c:v>45945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2 '!$F$13:$F$17</c:f>
+              <c:f>'Sprint 2 '!$F$14:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1146,7 +1215,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2 '!$G$12</c:f>
+              <c:f>'Sprint 2 '!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1169,31 +1238,31 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2 '!$E$13:$E$17</c:f>
+              <c:f>'Sprint 2 '!$E$14:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45909</c:v>
+                  <c:v>45938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45910</c:v>
+                  <c:v>45940</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45912</c:v>
+                  <c:v>45942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45914</c:v>
+                  <c:v>45944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45915</c:v>
+                  <c:v>45945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2 '!$G$13:$G$17</c:f>
+              <c:f>'Sprint 2 '!$G$14:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1208,9 +1277,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,13 +3644,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>90055</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>166255</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>55417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3953,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7005A097-3D20-45B1-8762-77FC135B0ACD}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="A6:H14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3988,6 +4054,9 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -4003,11 +4072,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="8">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="G2" s="8">
         <f>+F2+2</f>
-        <v>45903</v>
+        <v>45933</v>
+      </c>
+      <c r="H2" s="29">
+        <f>+G2-F2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4025,11 +4098,15 @@
       </c>
       <c r="F3" s="9">
         <f>+G2</f>
-        <v>45903</v>
+        <v>45933</v>
       </c>
       <c r="G3" s="9">
         <f>+F3+2</f>
-        <v>45905</v>
+        <v>45935</v>
+      </c>
+      <c r="H3" s="29">
+        <f t="shared" ref="H3:H4" si="0">+G3-F3</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4047,11 +4124,15 @@
       </c>
       <c r="F4" s="8">
         <f>+G3</f>
-        <v>45905</v>
+        <v>45935</v>
       </c>
       <c r="G4" s="8">
         <f>+F4+3</f>
-        <v>45908</v>
+        <v>45938</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4099,11 +4180,11 @@
       </c>
       <c r="F7" s="19">
         <f>+F2</f>
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="G7" s="19">
         <f>+F7</f>
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>35</v>
@@ -4126,12 +4207,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" ref="F8:F14" si="0">+G7</f>
-        <v>45901</v>
+        <f t="shared" ref="F8:F14" si="1">+G7</f>
+        <v>45931</v>
       </c>
       <c r="G8" s="22">
         <f>+F8+1</f>
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>35</v>
@@ -4154,12 +4235,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="19">
-        <f t="shared" si="0"/>
-        <v>45902</v>
+        <f t="shared" si="1"/>
+        <v>45932</v>
       </c>
       <c r="G9" s="19">
         <f>+F9+1</f>
-        <v>45903</v>
+        <v>45933</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>35</v>
@@ -4182,12 +4263,12 @@
         <v>2</v>
       </c>
       <c r="F10" s="22">
-        <f t="shared" si="0"/>
-        <v>45903</v>
+        <f t="shared" si="1"/>
+        <v>45933</v>
       </c>
       <c r="G10" s="22">
         <f>+F10+1</f>
-        <v>45904</v>
+        <v>45934</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>35</v>
@@ -4210,12 +4291,12 @@
         <v>2</v>
       </c>
       <c r="F11" s="19">
-        <f t="shared" si="0"/>
-        <v>45904</v>
+        <f t="shared" si="1"/>
+        <v>45934</v>
       </c>
       <c r="G11" s="19">
         <f>+F11+1</f>
-        <v>45905</v>
+        <v>45935</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>35</v>
@@ -4238,12 +4319,12 @@
         <v>3</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="0"/>
-        <v>45905</v>
+        <f t="shared" si="1"/>
+        <v>45935</v>
       </c>
       <c r="G12" s="22">
         <f>+F12</f>
-        <v>45905</v>
+        <v>45935</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>35</v>
@@ -4266,12 +4347,12 @@
         <v>4</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>45905</v>
+        <f t="shared" si="1"/>
+        <v>45935</v>
       </c>
       <c r="G13" s="19">
         <f>+F13+1</f>
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>35</v>
@@ -4294,12 +4375,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="0"/>
-        <v>45906</v>
+        <f t="shared" si="1"/>
+        <v>45936</v>
       </c>
       <c r="G14" s="22">
         <f>+G4</f>
-        <v>45908</v>
+        <v>45938</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>35</v>
@@ -4326,30 +4407,31 @@
         <v>34</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="30">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>45901</v>
+        <f>+F2</f>
+        <v>45931</v>
       </c>
       <c r="G17" s="27">
         <v>13</v>
@@ -4359,23 +4441,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="30">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="25">
         <v>3</v>
       </c>
       <c r="F18" s="22">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="G18" s="28">
         <v>10</v>
@@ -4385,23 +4467,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="30">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="20">
         <v>2</v>
       </c>
       <c r="F19" s="19">
-        <v>45903</v>
+        <v>45933</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -4411,23 +4493,23 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="30">
         <v>4</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="25">
         <v>2</v>
       </c>
-      <c r="F20" s="22">
-        <v>45904</v>
+      <c r="F20" s="19">
+        <v>45934</v>
       </c>
       <c r="G20" s="28">
         <v>8</v>
@@ -4437,23 +4519,23 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="A21" s="30">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="20">
         <v>2</v>
       </c>
       <c r="F21" s="19">
-        <v>45905</v>
+        <v>45935</v>
       </c>
       <c r="G21" s="27">
         <v>6</v>
@@ -4463,23 +4545,23 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+      <c r="A22" s="30">
         <v>6</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="25">
         <v>3</v>
       </c>
       <c r="F22" s="22">
-        <v>45905</v>
+        <v>45935</v>
       </c>
       <c r="G22" s="28">
         <v>3</v>
@@ -4489,23 +4571,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="30">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="20">
         <v>4</v>
       </c>
       <c r="F23" s="19">
-        <v>45906</v>
+        <v>45936</v>
       </c>
       <c r="G23" s="27">
         <v>2</v>
@@ -4515,23 +4597,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+      <c r="A24" s="30">
         <v>8</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="25">
         <v>3</v>
       </c>
       <c r="F24" s="22">
-        <v>45908</v>
+        <v>45938</v>
       </c>
       <c r="G24" s="28">
         <v>0</v>
@@ -4549,34 +4631,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7AD805-9F79-482F-9894-2D3904CEEE57}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="14" style="36" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -4585,334 +4668,375 @@
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="H1" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="43">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42">
+        <f>+'Sprint 1 '!G14</f>
+        <v>45938</v>
+      </c>
+      <c r="G2" s="42">
+        <v>45940</v>
+      </c>
+      <c r="H2" s="46">
+        <f>+G2-F2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="44">
         <v>8</v>
       </c>
-      <c r="F2" s="24">
-        <f>+'Sprint 1 '!G14</f>
-        <v>45908</v>
-      </c>
-      <c r="G2" s="24">
-        <f>+F2+7</f>
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="32">
+        <v>45940</v>
+      </c>
+      <c r="G3" s="32">
+        <v>45945</v>
+      </c>
+      <c r="H3" s="45">
+        <f>+G3-F3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+    <row r="6" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E6" s="38">
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F6" s="42">
         <f>+F2</f>
-        <v>45908</v>
-      </c>
-      <c r="G5" s="19">
-        <f>+F5+1</f>
-        <v>45909</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+        <v>45938</v>
+      </c>
+      <c r="G6" s="42">
+        <f>+F6+1</f>
+        <v>45939</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
         <v>10</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="31">
+        <v>4</v>
+      </c>
+      <c r="F7" s="32">
+        <f>+G6</f>
+        <v>45939</v>
+      </c>
+      <c r="G7" s="32">
+        <f>+F7+1</f>
+        <v>45940</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>11</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="38">
+        <v>4</v>
+      </c>
+      <c r="F8" s="42">
+        <f>+G7</f>
+        <v>45940</v>
+      </c>
+      <c r="G8" s="42">
+        <f>+F8+2</f>
+        <v>45942</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>12</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="C9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21">
-        <v>4</v>
-      </c>
-      <c r="F6" s="22">
-        <f>+G5</f>
-        <v>45909</v>
-      </c>
-      <c r="G6" s="22">
-        <f>+F6+1</f>
-        <v>45910</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="E9" s="31">
+        <v>6</v>
+      </c>
+      <c r="F9" s="32">
+        <f>+G8</f>
+        <v>45942</v>
+      </c>
+      <c r="G9" s="32">
+        <f>+F9+2</f>
+        <v>45944</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>13</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="38">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42">
+        <f>+G9</f>
+        <v>45944</v>
+      </c>
+      <c r="G10" s="42">
+        <f>G3</f>
+        <v>45945</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>9</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="42">
+        <f>+F6</f>
+        <v>45938</v>
+      </c>
+      <c r="F14" s="38">
+        <v>22</v>
+      </c>
+      <c r="G14" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="37">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="32">
+        <f>+F8</f>
+        <v>45940</v>
+      </c>
+      <c r="F15" s="31">
+        <v>18</v>
+      </c>
+      <c r="G15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B16" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="18">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19">
-        <f>+G6</f>
-        <v>45910</v>
-      </c>
-      <c r="G7" s="19">
-        <f>+F7+2</f>
-        <v>45912</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="E16" s="42">
+        <f>+F9</f>
+        <v>45942</v>
+      </c>
+      <c r="F16" s="38">
+        <v>14</v>
+      </c>
+      <c r="G16" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="37">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="B17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="21">
-        <v>6</v>
-      </c>
-      <c r="F8" s="22">
-        <f>+G7</f>
-        <v>45912</v>
-      </c>
-      <c r="G8" s="22">
-        <f>+F8+2</f>
-        <v>45914</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="E17" s="32">
+        <f>+F10</f>
+        <v>45944</v>
+      </c>
+      <c r="F17" s="31">
+        <v>8</v>
+      </c>
+      <c r="G17" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
         <v>13</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="B18" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18">
-        <v>3</v>
-      </c>
-      <c r="F9" s="19">
-        <f>+G8</f>
-        <v>45914</v>
-      </c>
-      <c r="G9" s="19">
-        <f>+G2</f>
-        <v>45915</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="E18" s="42">
+        <f>+G10</f>
+        <v>45945</v>
+      </c>
+      <c r="F18" s="38">
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
-        <v>9</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="19">
-        <v>45909</v>
-      </c>
-      <c r="F13" s="18">
-        <v>22</v>
-      </c>
-      <c r="G13" s="18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="22">
-        <v>45910</v>
-      </c>
-      <c r="F14" s="21">
-        <v>18</v>
-      </c>
-      <c r="G14" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="19">
-        <v>45912</v>
-      </c>
-      <c r="F15" s="18">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="22">
-        <v>45914</v>
-      </c>
-      <c r="F16" s="21">
-        <v>8</v>
-      </c>
-      <c r="G16" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="19">
-        <v>45915</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
+      <c r="G18" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4924,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4928B1D4-B006-4047-964D-C09CD7DEA272}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H11" sqref="A5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4933,7 +5057,7 @@
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
@@ -4962,46 +5086,46 @@
     </row>
     <row r="2" spans="1:8" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="18">
         <v>5</v>
       </c>
       <c r="F2" s="24">
-        <f>+'Sprint 2 '!G9</f>
-        <v>45915</v>
+        <f>+'Sprint 2 '!G10</f>
+        <v>45945</v>
       </c>
       <c r="G2" s="24">
         <f>+F2+2</f>
-        <v>45917</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E3" s="21">
         <v>8</v>
       </c>
       <c r="F3" s="26">
         <f>+G2</f>
-        <v>45917</v>
+        <v>45947</v>
       </c>
       <c r="G3" s="26">
         <f>+F3+5</f>
-        <v>45922</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5036,10 +5160,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
@@ -5049,14 +5173,14 @@
       </c>
       <c r="F6" s="12">
         <f>+F2</f>
-        <v>45915</v>
+        <v>45945</v>
       </c>
       <c r="G6" s="12">
         <f>+F6</f>
-        <v>45915</v>
+        <v>45945</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5064,10 +5188,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
@@ -5077,14 +5201,14 @@
       </c>
       <c r="F7" s="11">
         <f>+G6</f>
-        <v>45915</v>
+        <v>45945</v>
       </c>
       <c r="G7" s="11">
         <f>+F7+1</f>
-        <v>45916</v>
+        <v>45946</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5092,10 +5216,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
@@ -5105,14 +5229,14 @@
       </c>
       <c r="F8" s="12">
         <f>+G7</f>
-        <v>45916</v>
+        <v>45946</v>
       </c>
       <c r="G8" s="12">
         <f>+F8+1</f>
-        <v>45917</v>
+        <v>45947</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5120,10 +5244,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
@@ -5133,14 +5257,14 @@
       </c>
       <c r="F9" s="11">
         <f>+G8</f>
-        <v>45917</v>
+        <v>45947</v>
       </c>
       <c r="G9" s="11">
         <f>+F9+2</f>
-        <v>45919</v>
+        <v>45949</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5148,10 +5272,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>29</v>
@@ -5161,14 +5285,14 @@
       </c>
       <c r="F10" s="12">
         <f>+G9</f>
-        <v>45919</v>
+        <v>45949</v>
       </c>
       <c r="G10" s="12">
         <f>+F10+2</f>
-        <v>45921</v>
+        <v>45951</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5176,10 +5300,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
@@ -5189,14 +5313,14 @@
       </c>
       <c r="F11" s="11">
         <f>+G10</f>
-        <v>45921</v>
+        <v>45951</v>
       </c>
       <c r="G11" s="11">
         <f>+G3</f>
-        <v>45922</v>
+        <v>45952</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5217,10 +5341,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5228,10 +5352,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>29</v>
@@ -5252,10 +5376,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>29</v>
@@ -5276,10 +5400,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -5288,7 +5412,7 @@
         <v>45917</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F19" si="0">+F15-E7</f>
+        <f t="shared" ref="F16:F18" si="0">+F15-E7</f>
         <v>15</v>
       </c>
       <c r="G16" s="5">
@@ -5300,10 +5424,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>24</v>
@@ -5324,10 +5448,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -5348,10 +5472,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>24</v>
@@ -5376,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1AFC42-F163-4781-B91C-41AD7CBCCCE1}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5385,7 +5509,7 @@
     <col min="1" max="1" width="7.109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="23" customWidth="1"/>
     <col min="3" max="3" width="16" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="23" customWidth="1"/>
     <col min="5" max="5" width="12" style="23" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="12.21875" style="23" customWidth="1"/>
@@ -5413,48 +5537,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18">
         <v>5</v>
       </c>
       <c r="F2" s="24">
         <f>+'Sprint 3 '!G11</f>
-        <v>45922</v>
+        <v>45952</v>
       </c>
       <c r="G2" s="24">
         <f>+F2+3</f>
-        <v>45925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" s="21">
         <v>8</v>
       </c>
       <c r="F3" s="26">
         <f>+G2</f>
-        <v>45925</v>
+        <v>45955</v>
       </c>
       <c r="G3" s="26">
         <f>+F3+4</f>
-        <v>45929</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5489,10 +5613,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>29</v>
@@ -5502,14 +5626,14 @@
       </c>
       <c r="F6" s="19">
         <f>F2</f>
-        <v>45922</v>
+        <v>45952</v>
       </c>
       <c r="G6" s="19">
         <f>+F6+1</f>
-        <v>45923</v>
+        <v>45953</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5517,10 +5641,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>24</v>
@@ -5530,14 +5654,14 @@
       </c>
       <c r="F7" s="22">
         <f>+G6</f>
-        <v>45923</v>
+        <v>45953</v>
       </c>
       <c r="G7" s="22">
         <f>+F7+1</f>
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5545,10 +5669,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>29</v>
@@ -5558,14 +5682,14 @@
       </c>
       <c r="F8" s="19">
         <f>+G7</f>
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="G8" s="19">
         <f>+F8+1</f>
-        <v>45925</v>
+        <v>45955</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5573,10 +5697,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>22</v>
@@ -5586,14 +5710,14 @@
       </c>
       <c r="F9" s="22">
         <f>+G8</f>
-        <v>45925</v>
+        <v>45955</v>
       </c>
       <c r="G9" s="22">
         <f>+F9+2</f>
-        <v>45927</v>
+        <v>45957</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5601,10 +5725,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>31</v>
@@ -5614,14 +5738,14 @@
       </c>
       <c r="F10" s="19">
         <f>+G9</f>
-        <v>45927</v>
+        <v>45957</v>
       </c>
       <c r="G10" s="19">
         <f>+F10+1</f>
-        <v>45928</v>
+        <v>45958</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5629,27 +5753,27 @@
         <v>25</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
       </c>
       <c r="F11" s="22">
         <f>+G10</f>
-        <v>45928</v>
+        <v>45958</v>
       </c>
       <c r="G11" s="22">
         <f>+G3</f>
-        <v>45929</v>
+        <v>45959</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9EB94-E42A-4E24-B001-BD3A27710AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3964509-2B23-4B89-8098-F2D9C78E88B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="5" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -450,12 +450,69 @@
   <si>
     <t>Experiencia de usuario y entrega final</t>
   </si>
+  <si>
+    <t>HU-1</t>
+  </si>
+  <si>
+    <t>HU-2</t>
+  </si>
+  <si>
+    <t>HU-3</t>
+  </si>
+  <si>
+    <t>Diseñar esquema de BD para usuarios y roles</t>
+  </si>
+  <si>
+    <t>Implementar autenticación (Login/Register)</t>
+  </si>
+  <si>
+    <t>Configurar controladores y rutas en backend</t>
+  </si>
+  <si>
+    <t>Crear interfaz de registro y login</t>
+  </si>
+  <si>
+    <t>Pruebas de seguridad y sesión</t>
+  </si>
+  <si>
+    <t>Crear consultas SQL de resumen</t>
+  </si>
+  <si>
+    <t>Implementar dashboard con métricas (usuarios activos, progreso)</t>
+  </si>
+  <si>
+    <t>Conectar con frontend (gráficos dinámicos)</t>
+  </si>
+  <si>
+    <t>Crear script de backup automático de BD</t>
+  </si>
+  <si>
+    <t>Integrar restauración manual desde panel admin</t>
+  </si>
+  <si>
+    <t>Pruebas de recuperación de datos</t>
+  </si>
+  <si>
+    <t>TAREAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRINT 1 </t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>Real2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,16 +533,36 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -493,11 +570,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,11 +672,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="77">
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -545,25 +773,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -625,16 +853,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -699,16 +926,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -774,14 +1000,17 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -809,15 +1038,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -845,18 +1075,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -884,15 +1111,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -919,23 +1147,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -949,66 +1160,1072 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>BURNDOWN CHART</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 '!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7049-4871-AA35-DAB1A4979080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 '!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 '!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7049-4871-AA35-DAB1A4979080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1258400896"/>
+        <c:axId val="1260183872"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1258400896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260183872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1260183872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258400896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1850572</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40B3550-E95D-4F8D-9F45-D0EAD79A743E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="69">
-  <autoFilter ref="A1:E4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Puntos" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="H1:L7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G6" xr:uid="{36140BD1-2857-4354-99CF-65B2C864054D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="H1:L4" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
-  <autoFilter ref="H1:L4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="J1:N4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="69">
   <autoFilter ref="A1:E4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="68"/>
@@ -1022,84 +2239,84 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="G1:K4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="G1:K4" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="G1:K4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:E5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Puntos" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Puntos" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="I1:M5" xr:uid="{6EA5FF5D-303B-47DA-8671-AA9BDBBE3AB1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:E4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Puntos" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Puntos" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="J1:N4" xr:uid="{8B3B822A-9D65-491D-BD34-38117E174830}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:E7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1402,23 +2619,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF168A87-6B13-40AD-99BE-AE163F7E8306}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L4" sqref="H1:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="25"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1426,131 +2649,246 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="124.8" customHeight="1">
+    <row r="2" spans="1:14" ht="124.8" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>8</v>
+      <c r="C2" s="4">
+        <v>45925</v>
       </c>
       <c r="D2" s="4">
-        <v>45925</v>
+        <v>45934</v>
       </c>
       <c r="E2" s="4">
         <v>45934</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="23">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="124.8" customHeight="1">
+    <row r="3" spans="1:14" ht="103.8" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
+      <c r="C3" s="4">
+        <v>45925</v>
       </c>
       <c r="D3" s="4">
-        <v>45925</v>
+        <v>45939</v>
       </c>
       <c r="E3" s="4">
         <v>45939</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="124.8" customHeight="1">
+    <row r="4" spans="1:14" ht="88.8" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
+        <v>45931</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45939</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45956</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>45931</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45939</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="J10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8">
+      <c r="J11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57.6">
+      <c r="J12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="57.6">
+      <c r="J13" s="19"/>
+      <c r="K13" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.2">
+      <c r="J14" s="19"/>
+      <c r="K14" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8">
+      <c r="J15" s="19"/>
+      <c r="K15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="J16" s="20"/>
+      <c r="K16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J12:J16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1569,7 +2907,7 @@
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +3050,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1722,7 +3060,7 @@
     <col min="12" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +3244,7 @@
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FA179-2D3F-4332-84D1-DDF21F5C3B71}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="L7" sqref="H1:L7"/>
     </sheetView>
   </sheetViews>
@@ -2298,7 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB58825C-42F9-4997-BB29-C8CCF1405C4D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
@@ -2311,7 +3649,7 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
@@ -2334,7 +3672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2357,7 +3695,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72">
+    <row r="3" spans="1:7" ht="43.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2380,7 +3718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6">
+    <row r="4" spans="1:7" ht="43.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2403,7 +3741,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2426,7 +3764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="72">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3964509-2B23-4B89-8098-F2D9C78E88B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686A92A-3FAD-45E1-B2F3-7EFEF87A282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="3" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -304,18 +304,12 @@
     <t>Validar resultados y progresos</t>
   </si>
   <si>
-    <t>- Crear función de comparación de calorías objetivo vs consumo- Generar reporte de validación del nutriólogo- Guardar validaciones en BD</t>
-  </si>
-  <si>
     <t>HU-11</t>
   </si>
   <si>
     <t>Registrar medidas corporales</t>
   </si>
   <si>
-    <t>- Crear formulario de registro de medidas (peso, cintura, brazos, etc.)- Validar entrada de datos y guardar histórico- Mostrar alertas si hay cambios bruscos</t>
-  </si>
-  <si>
     <t>HU-12</t>
   </si>
   <si>
@@ -506,6 +500,24 @@
   </si>
   <si>
     <t>Real2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar progresos  - Validar ingesta calorica </t>
+  </si>
+  <si>
+    <t>FINALIZADO</t>
+  </si>
+  <si>
+    <t>Fin real</t>
+  </si>
+  <si>
+    <t>Fin Real</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Crear formulario de registro de medidas (peso, cintura, brazos, etc.)- Validar entrada de datos y guardar histórico- Validar registros de cambios</t>
   </si>
 </sst>
 </file>
@@ -649,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,15 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,34 +727,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+  <dxfs count="80">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -773,28 +794,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -816,16 +831,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -853,15 +867,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -889,16 +904,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -926,15 +940,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -968,6 +983,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -999,11 +1023,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1038,16 +1060,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1075,15 +1101,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1111,16 +1138,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1567,7 +1600,1011 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>BurdownChart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 2'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-93DB-4015-8EC2-B183B366EE25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 2'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 2'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-93DB-4015-8EC2-B183B366EE25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931174432"/>
+        <c:axId val="951206832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931174432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951206832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951206832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931174432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>BurdownChart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3 '!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5808-4A6E-9019-EACE074D4853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3 '!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 3 '!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5808-4A6E-9019-EACE074D4853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931174432"/>
+        <c:axId val="951206832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931174432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951206832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951206832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931174432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2104,6 +3141,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2164,159 +4233,246 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E1B057-1C7F-4608-A71C-14AD409DE494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2042160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F34ADA0-17B8-4790-AFE7-868AA48CFAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="79">
   <autoFilter ref="A1:G4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="H1:L7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G6" xr:uid="{36140BD1-2857-4354-99CF-65B2C864054D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="J1:N4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="69">
-  <autoFilter ref="A1:E4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Puntos" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="64">
+  <autoFilter ref="A1:F4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="G1:K4" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="G1:K4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="I1:M4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A1:E5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Puntos" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:G5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="I1:M5" xr:uid="{6EA5FF5D-303B-47DA-8671-AA9BDBBE3AB1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:E4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Puntos" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Puntos" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="J1:N4" xr:uid="{8B3B822A-9D65-491D-BD34-38117E174830}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:E7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2619,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF168A87-6B13-40AD-99BE-AE163F7E8306}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2632,7 +4788,7 @@
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="25"/>
+    <col min="7" max="7" width="8.88671875" style="22"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="29.88671875" customWidth="1"/>
@@ -2655,13 +4811,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2" t="s">
@@ -2699,7 +4855,7 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="20">
         <v>16</v>
       </c>
       <c r="H2" s="4"/>
@@ -2738,7 +4894,7 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="20">
         <v>8</v>
       </c>
       <c r="H3" s="4"/>
@@ -2771,16 +4927,16 @@
       <c r="D4" s="4">
         <v>45939</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>45956</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <v>3</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="18"/>
       <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
@@ -2799,16 +4955,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="J10" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8">
@@ -2826,55 +4982,55 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="57.6">
-      <c r="J12" s="18" t="s">
-        <v>147</v>
+      <c r="J12" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="57.6">
-      <c r="J13" s="19"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.2">
-      <c r="J14" s="19"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8">
-      <c r="J15" s="19"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="28.8">
-      <c r="J16" s="20"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
@@ -2895,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BBF06-5876-4115-ABA4-B7053C7C3755}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="G1:K4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4"/>
@@ -2907,7 +5063,7 @@
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2915,132 +5071,157 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="99.6" customHeight="1">
+    <row r="2" spans="1:13" ht="99.6" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
+      <c r="C2" s="4">
+        <v>45940</v>
       </c>
       <c r="D2" s="4">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="E2" s="4">
         <v>45945</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="25">
+        <v>13</v>
+      </c>
+      <c r="G2" s="25">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
+      <c r="M2" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99.6" customHeight="1">
+    <row r="3" spans="1:13" ht="99.6" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3" s="4">
+        <v>45940</v>
       </c>
       <c r="D3" s="4">
-        <v>45940</v>
+        <v>45947</v>
       </c>
       <c r="E3" s="4">
         <v>45947</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="23">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
+      <c r="M3" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.6" customHeight="1">
+    <row r="4" spans="1:13" ht="99.6" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>5</v>
+      <c r="C4" s="4">
+        <v>45945</v>
       </c>
       <c r="D4" s="4">
-        <v>45945</v>
+        <v>45954</v>
       </c>
       <c r="E4" s="4">
-        <v>45954</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>45960</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>55</v>
+      <c r="M4" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3050,7 +5231,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3068,13 +5249,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
+      <c r="G1" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -3099,15 +5286,21 @@
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3">
-        <v>8</v>
+      <c r="C2" s="5">
+        <v>45955</v>
       </c>
       <c r="D2" s="5">
-        <v>45955</v>
+        <v>45961</v>
       </c>
       <c r="E2" s="5">
         <v>45961</v>
       </c>
+      <c r="F2" s="3">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>26</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>73</v>
       </c>
@@ -3121,7 +5314,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -3131,15 +5324,21 @@
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3">
-        <v>8</v>
+      <c r="C3" s="5">
+        <v>45955</v>
       </c>
       <c r="D3" s="5">
-        <v>45955</v>
+        <v>45966</v>
       </c>
       <c r="E3" s="5">
         <v>45966</v>
       </c>
+      <c r="F3" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>76</v>
       </c>
@@ -3153,7 +5352,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -3163,15 +5362,21 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
-        <v>5</v>
+      <c r="C4" s="5">
+        <v>45961</v>
       </c>
       <c r="D4" s="5">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="E4" s="5">
         <v>45968</v>
       </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>79</v>
       </c>
@@ -3185,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -3195,14 +5400,20 @@
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
+        <v>45964</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45968</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45973</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>45964</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45968</v>
+      <c r="G5" s="3">
+        <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>82</v>
@@ -3211,20 +5422,21 @@
         <v>83</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3233,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7865434E-D4EB-4A66-9DA0-3468A7F11A1A}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3287,19 +5499,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>45955</v>
+        <f>+'Sprint 3 '!E4</f>
+        <v>45968</v>
       </c>
       <c r="E2" s="4">
-        <v>45961</v>
+        <f>+Table5[[#This Row],[Inicio]]+2</f>
+        <v>45970</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -3319,19 +5533,21 @@
         <v>5</v>
       </c>
       <c r="D3" s="4">
-        <v>45958</v>
+        <f>+E2</f>
+        <v>45970</v>
       </c>
       <c r="E3" s="4">
-        <v>45966</v>
+        <f>+Table5[[#This Row],[Inicio]]+2</f>
+        <v>45972</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>7</v>
@@ -3351,19 +5567,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>45962</v>
+        <f>+E3</f>
+        <v>45972</v>
       </c>
       <c r="E4" s="4">
-        <v>45968</v>
+        <f>+Table5[[#This Row],[Inicio]]+2</f>
+        <v>45974</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
@@ -3385,8 +5603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FA179-2D3F-4332-84D1-DDF21F5C3B71}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="L7" sqref="H1:L7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4"/>
@@ -3448,16 +5666,16 @@
         <v>45970</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>55</v>
@@ -3480,16 +5698,16 @@
         <v>45973</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>55</v>
@@ -3512,16 +5730,16 @@
         <v>45974</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>55</v>
@@ -3544,16 +5762,16 @@
         <v>45975</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>55</v>
@@ -3576,16 +5794,16 @@
         <v>45976</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>55</v>
@@ -3608,16 +5826,16 @@
         <v>45976</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>55</v>
@@ -3651,25 +5869,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8">
@@ -3677,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -3689,10 +5907,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2">
@@ -3700,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -3712,10 +5930,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2">
@@ -3723,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -3735,10 +5953,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2">
@@ -3746,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -3758,10 +5976,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2">
@@ -3769,7 +5987,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -3781,10 +5999,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686A92A-3FAD-45E1-B2F3-7EFEF87A282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9186EA-E3CB-4477-9C8D-73CCBCE49885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="3" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Crear formulario de registro de medidas (peso, cintura, brazos, etc.)- Validar entrada de datos y guardar histórico- Validar registros de cambios</t>
+  </si>
+  <si>
+    <t>Fin2</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="82">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -901,17 +924,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2524,6 +2536,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>BurdownChart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4 '!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 4 '!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 4 '!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD7-4C3F-809C-35DCFA8101BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4 '!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 4 '!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 4 '!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDD7-4C3F-809C-35DCFA8101BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931174432"/>
+        <c:axId val="951206832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931174432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951206832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951206832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931174432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2644,6 +3112,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3677,6 +4185,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4317,162 +5341,211 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86559414-C2DD-4E96-8FE4-CB64C53B6E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="A1:G4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="H1:L7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:G6" xr:uid="{36140BD1-2857-4354-99CF-65B2C864054D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="J1:N4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A1:F4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="I1:M4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:G5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="I1:M5" xr:uid="{6EA5FF5D-303B-47DA-8671-AA9BDBBE3AB1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="A1:E4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Puntos" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A1:G4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="3">
+      <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CFF9BE69-7D47-4171-A5DD-3B8A72D09E5A}" name="Fin2" dataDxfId="2">
+      <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BC7CD9BC-BB4A-4092-A8C9-5AD0AC476327}" name="Esperado" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Real" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="J1:N4" xr:uid="{8B3B822A-9D65-491D-BD34-38117E174830}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:E7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5230,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D03CB3-B0E7-44BC-99EC-47627042B396}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -5445,13 +6518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7865434E-D4EB-4A66-9DA0-3468A7F11A1A}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="11" max="12" width="21.109375" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
@@ -5464,13 +6538,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>156</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -5495,16 +6575,23 @@
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4">
         <f>+'Sprint 3 '!E4</f>
         <v>45968</v>
+      </c>
+      <c r="D2" s="4">
+        <f>+Table5[[#This Row],[Inicio]]+2</f>
+        <v>45970</v>
       </c>
       <c r="E2" s="4">
         <f>+Table5[[#This Row],[Inicio]]+2</f>
         <v>45970</v>
+      </c>
+      <c r="F2" s="20">
+        <v>13</v>
+      </c>
+      <c r="G2" s="20">
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>84</v>
@@ -5529,16 +6616,23 @@
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
+      <c r="C3" s="4">
+        <f>+D2</f>
+        <v>45970</v>
       </c>
       <c r="D3" s="4">
-        <f>+E2</f>
-        <v>45970</v>
+        <f>+Table5[[#This Row],[Inicio]]+2</f>
+        <v>45972</v>
       </c>
       <c r="E3" s="4">
         <f>+Table5[[#This Row],[Inicio]]+2</f>
         <v>45972</v>
+      </c>
+      <c r="F3" s="20">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20">
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>86</v>
@@ -5563,16 +6657,22 @@
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1">
-        <v>5</v>
+      <c r="C4" s="4">
+        <f>+D3</f>
+        <v>45972</v>
       </c>
       <c r="D4" s="4">
-        <f>+E3</f>
-        <v>45972</v>
-      </c>
-      <c r="E4" s="4">
         <f>+Table5[[#This Row],[Inicio]]+2</f>
         <v>45974</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45979</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>89</v>
@@ -5592,9 +6692,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9186EA-E3CB-4477-9C8D-73CCBCE49885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97137D-8AF1-4B43-95C6-93B7D6DAA188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="3" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="4" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="156">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -149,28 +149,13 @@
     <t>Integración con módulo de cálculo nutricional.</t>
   </si>
   <si>
-    <t>HU-14: Registro e ingreso de datos personales y objetivos.</t>
-  </si>
-  <si>
     <t>Pantalla de onboarding.</t>
   </si>
   <si>
-    <t>HU-15: Visualización del plan alimenticio (menús, horarios, calorías).</t>
-  </si>
-  <si>
-    <t>Interfaz con menús personalizados.</t>
-  </si>
-  <si>
     <t>HU-16: Validar recomendaciones dietéticas.</t>
   </si>
   <si>
     <t>Comparar ingesta calórica registrada.</t>
-  </si>
-  <si>
-    <t>HU-17: Recibir recomendaciones adaptadas.</t>
-  </si>
-  <si>
-    <t>Notificaciones inteligentes.</t>
   </si>
   <si>
     <t>HU-18: Visualizar avances y reportes.</t>
@@ -334,18 +319,9 @@
     <t>Registro e ingreso de datos personales y objetivos</t>
   </si>
   <si>
-    <t>- Crear pantalla de registro y onboarding de usuario- Validar datos y guardar en perfil- Integrar selector de objetivos físicos</t>
-  </si>
-  <si>
     <t>HU-15</t>
   </si>
   <si>
-    <t>Visualización del plan alimenticio (menús, horarios, calorías)</t>
-  </si>
-  <si>
-    <t>- Diseñar dashboard de alimentación- Mostrar menús diarios y calorías totales- Pruebas de visualización por dispositivo</t>
-  </si>
-  <si>
     <t>HU-16</t>
   </si>
   <si>
@@ -358,30 +334,18 @@
     <t>HU-17</t>
   </si>
   <si>
-    <t>Recibir recomendaciones adaptadas</t>
-  </si>
-  <si>
-    <t>- Configurar motor de sugerencias personalizadas- Notificaciones dinámicas (pop-up o email)- Integrar con perfil del usuario</t>
-  </si>
-  <si>
     <t>HU-18</t>
   </si>
   <si>
     <t>Visualizar avances y reportes</t>
   </si>
   <si>
-    <t>- Integrar reportes visuales (PDF o gráficos)- Crear resumen mensual del progreso físico y nutricional</t>
-  </si>
-  <si>
     <t>HU-19</t>
   </si>
   <si>
     <t>Validación experta de recomendaciones dietéticas</t>
   </si>
   <si>
-    <t>- Crear módulo de validación por nutriólogo- Enviar retroalimentación y observaciones- Registrar auditorías en BD</t>
-  </si>
-  <si>
     <t>Grupal</t>
   </si>
   <si>
@@ -521,6 +485,54 @@
   </si>
   <si>
     <t>Fin2</t>
+  </si>
+  <si>
+    <t>Crear pantalla de registro de usuario
+- Validar datos y guardar en perfil
+- Inicio de sesión
+- Cierre de sesión</t>
+  </si>
+  <si>
+    <t>Selecccion de preferencias y objetivos</t>
+  </si>
+  <si>
+    <t>HU-15: Como usuario, quiero seleccionar mis preferencias y objetivos para un progreso más personalizado.</t>
+  </si>
+  <si>
+    <t>HU-14: Como usuario, quiero registrarme e ingresar mis datos personales en el sistema.</t>
+  </si>
+  <si>
+    <t>Selección de objetivos 
+-Selección de preferencias
+-Validación de selección 
+- Mostrar preferencias y objetivos</t>
+  </si>
+  <si>
+    <t>Validar recomendaciones dietéticas en base a objetivos</t>
+  </si>
+  <si>
+    <t>HU-17: Recibir recomendaciones adaptadas a objetivos</t>
+  </si>
+  <si>
+    <t>Consultar objetivos
+- Diferenciar objetivos
+- Métricas calóricas por objetivos
+- Validar Métricas
+- Visualizar resultados</t>
+  </si>
+  <si>
+    <t>Integrar gráficos de progreso por objetivo 
+- Integrar grafico de calorías  por dieta
+- Integrar grafico de comparación según medidas</t>
+  </si>
+  <si>
+    <t>Visualizar dietas de cada usuario 
+- Validación de dietas
+- Registro de validación
+- Visualizar dietas validadas por usuario</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -752,21 +764,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="84">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -862,9 +866,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -924,6 +925,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2778,6 +2799,498 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDD7-4C3F-809C-35DCFA8101BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931174432"/>
+        <c:axId val="951206832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931174432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951206832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951206832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931174432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>BurdownChart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 5 '!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 5 '!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 5 '!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2831-443F-9BB8-DDC124F5C397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 5 '!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 5 '!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 5 '!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2831-443F-9BB8-DDC124F5C397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3152,6 +3665,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4701,6 +5254,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5384,168 +6453,215 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>401781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE00583-BF83-494E-8122-1273415A4B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="83">
   <autoFilter ref="A1:G4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{D6D7A7D7-9517-47B1-8D78-05F39A8C7B28}" name="Inicio" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{28F7D3BC-9628-49BE-9C4B-6275D6B13920}" name="Fin" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{988F7153-31B6-4665-B292-DD1835FCA682}" name="Real" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{97627D17-1AAA-478F-9A9E-B47AC1BBD346}" name="Esperado" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{06B6D843-3508-4C54-AF98-79F0B9E21D5E}" name="Real2" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="H1:L7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="H1:L7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="J1:N7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="J1:N7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:G6" xr:uid="{36140BD1-2857-4354-99CF-65B2C864054D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="J1:N4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="68">
   <autoFilter ref="A1:F4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="I1:M4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:G5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="I1:M5" xr:uid="{6EA5FF5D-303B-47DA-8671-AA9BDBBE3AB1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:G4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="34">
       <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFF9BE69-7D47-4171-A5DD-3B8A72D09E5A}" name="Fin2" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{CFF9BE69-7D47-4171-A5DD-3B8A72D09E5A}" name="Fin2" dataDxfId="33">
       <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC7CD9BC-BB4A-4092-A8C9-5AD0AC476327}" name="Esperado" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Real" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{BC7CD9BC-BB4A-4092-A8C9-5AD0AC476327}" name="Esperado" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Real" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="J1:N4" xr:uid="{8B3B822A-9D65-491D-BD34-38117E174830}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:E7" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:E7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{87074347-A10C-4F44-94F0-60AFE6D2A979}" name="Puntos" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Fin" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:G7" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:G7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Real" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{55811D11-8E57-4CC3-BA9E-9B3C59346D4A}" name="Esperado" dataDxfId="2">
+      <calculatedColumnFormula>+Table6[[#This Row],[Inicio]]+3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7E5FBBF2-041F-44AE-BC6A-F860C25AE355}" name="Puntos" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6C675A60-4552-427E-8B6A-E6E86C953BEC}" name="Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5884,13 +7000,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2" t="s">
@@ -5900,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
@@ -5933,19 +7049,19 @@
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="103.8" customHeight="1">
@@ -5972,19 +7088,19 @@
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="88.8" customHeight="1">
@@ -6011,91 +7127,91 @@
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="J10" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8">
       <c r="J11" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="57.6">
       <c r="J12" s="26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="57.6">
       <c r="J13" s="27"/>
       <c r="K13" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.2">
       <c r="J14" s="27"/>
       <c r="K14" s="16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8">
       <c r="J15" s="27"/>
       <c r="K15" s="14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
@@ -6103,7 +7219,7 @@
     <row r="16" spans="1:14" ht="28.8">
       <c r="J16" s="28"/>
       <c r="K16" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
@@ -6150,22 +7266,22 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -6197,19 +7313,19 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="99.6" customHeight="1">
@@ -6235,19 +7351,19 @@
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="99.6" customHeight="1">
@@ -6273,19 +7389,19 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6304,7 +7420,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6312,6 +7428,7 @@
     <col min="1" max="2" width="31.33203125" customWidth="1"/>
     <col min="10" max="11" width="21.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6328,13 +7445,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -6343,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -6375,19 +7492,19 @@
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -6413,19 +7530,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -6451,19 +7568,19 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -6489,19 +7606,19 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6518,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7865434E-D4EB-4A66-9DA0-3468A7F11A1A}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6528,6 +7645,7 @@
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="11" max="12" width="21.109375" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6544,13 +7662,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -6559,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
@@ -6594,19 +7712,19 @@
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="133.80000000000001" customHeight="1">
@@ -6635,19 +7753,19 @@
         <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="133.80000000000001" customHeight="1">
@@ -6675,19 +7793,19 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6702,23 +7820,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FA179-2D3F-4332-84D1-DDF21F5C3B71}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" customWidth="1"/>
+    <col min="12" max="12" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6726,227 +7845,285 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="85.8" customHeight="1">
+    <row r="2" spans="1:14" ht="85.8" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4">
+        <v>45974</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45974</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45974</v>
+      </c>
+      <c r="F2" s="20">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="85.8" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="4">
+        <f>+D2</f>
+        <v>45974</v>
+      </c>
+      <c r="D3" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+2</f>
+        <v>45976</v>
+      </c>
+      <c r="E3" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+3</f>
+        <v>45977</v>
+      </c>
+      <c r="F3" s="20">
+        <v>19</v>
+      </c>
+      <c r="G3" s="20">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="85.8" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45969</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45970</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C7" si="0">+D3</f>
+        <v>45976</v>
+      </c>
+      <c r="D4" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+2</f>
+        <v>45978</v>
+      </c>
+      <c r="E4" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+3</f>
+        <v>45979</v>
+      </c>
+      <c r="F4" s="20">
+        <v>14</v>
+      </c>
+      <c r="G4" s="20">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="109.8" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>45978</v>
+      </c>
+      <c r="D5" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+1</f>
+        <v>45979</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45983</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="85.8" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>45979</v>
+      </c>
+      <c r="D6" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+1</f>
+        <v>45980</v>
+      </c>
+      <c r="E6" s="4">
+        <f>+E5+1</f>
+        <v>45984</v>
+      </c>
+      <c r="F6" s="20">
+        <v>6</v>
+      </c>
+      <c r="G6" s="20">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>55</v>
+      <c r="K6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="85.8" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45969</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45973</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="3" t="s">
+    <row r="7" spans="1:14" ht="85.8" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>45980</v>
+      </c>
+      <c r="D7" s="4">
+        <f>+Table6[[#This Row],[Inicio]]+1</f>
+        <v>45981</v>
+      </c>
+      <c r="E7" s="4">
+        <f>+E6+2</f>
+        <v>45986</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="85.8" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45970</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45974</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="85.8" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45970</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45975</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="85.8" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45969</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45976</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="85.8" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45971</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45976</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>55</v>
+      <c r="N7" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6970,25 +8147,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8">
@@ -6996,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -7008,10 +8185,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2">
@@ -7019,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -7031,10 +8208,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2">
@@ -7042,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -7054,10 +8231,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2">
@@ -7065,7 +8242,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -7077,10 +8254,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2">
@@ -7088,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -7100,10 +8277,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Cursos\Cursos_2025\2025-02\Proyecto - 2\CARPETAS\TALLER_DE_PROYECTOS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97137D-8AF1-4B43-95C6-93B7D6DAA188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CED298-A637-4122-A798-646ABE51CF8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8076" activeTab="4" xr2:uid="{DFE89E42-E55B-4B7D-89EA-0CD2B781E058}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -182,9 +182,6 @@
     <t>- Diseñar esquema de BD para usuarios y roles- Implementar autenticación (Login/Register)- Configurar controladores y rutas en backend- Crear interfaz de registro y login- Pruebas de seguridad y sesión</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>HU-02</t>
   </si>
   <si>
@@ -192,15 +189,6 @@
   </si>
   <si>
     <t>- Crear consultas SQL de resumen- Implementar dashboard con métricas (usuarios activos, progreso)- Conectar con frontend (gráficos dinámicos)</t>
-  </si>
-  <si>
-    <t>HU-20</t>
-  </si>
-  <si>
-    <t>Copias de seguridad</t>
-  </si>
-  <si>
-    <t>- Crear script de backup automático de BD- Integrar restauración manual desde panel admin- Pruebas de recuperación de datos</t>
   </si>
   <si>
     <t>Historia</t>
@@ -262,9 +250,6 @@
     <t>Validar cálculos automáticos de calorías y macronutrientes</t>
   </si>
   <si>
-    <t>- Programar fórmula Harris-Benedict y cálculo TDEE- Crear funciones de distribución de macronutrientes- Pruebas con distintos perfiles (sexo, peso, actividad)</t>
-  </si>
-  <si>
     <t>HU-08</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
     <t>Validar sustitución de alimentos</t>
   </si>
   <si>
-    <t>- Implementar sistema de sustitución de alimentos por equivalencia nutricional- Crear API interna para sugerencias- Validar con nutriólogo los intercambios</t>
-  </si>
-  <si>
     <t>HU-10</t>
   </si>
   <si>
@@ -301,18 +283,12 @@
     <t>Visualizar gráficos de evolución corporal</t>
   </si>
   <si>
-    <t>- Integrar librería de gráficos (Chart.js o Recharts)- Mostrar evolución temporal de medidas y peso- Probar visualización responsive</t>
-  </si>
-  <si>
     <t>HU-13</t>
   </si>
   <si>
     <t>Sugerencia automática de ajustes de dieta</t>
   </si>
   <si>
-    <t>- Conectar módulo de progreso con motor nutricional- Crear función de ajuste calórico (+/- 10%)- Validación final por nutriólogo</t>
-  </si>
-  <si>
     <t>HU-14</t>
   </si>
   <si>
@@ -328,9 +304,6 @@
     <t>Validar recomendaciones dietéticas</t>
   </si>
   <si>
-    <t>- Comparar calorías consumidas vs planificadas- Crear vista de análisis nutricional del día- Validación del cálculo automático</t>
-  </si>
-  <si>
     <t>HU-17</t>
   </si>
   <si>
@@ -407,54 +380,6 @@
   </si>
   <si>
     <t>Experiencia de usuario y entrega final</t>
-  </si>
-  <si>
-    <t>HU-1</t>
-  </si>
-  <si>
-    <t>HU-2</t>
-  </si>
-  <si>
-    <t>HU-3</t>
-  </si>
-  <si>
-    <t>Diseñar esquema de BD para usuarios y roles</t>
-  </si>
-  <si>
-    <t>Implementar autenticación (Login/Register)</t>
-  </si>
-  <si>
-    <t>Configurar controladores y rutas en backend</t>
-  </si>
-  <si>
-    <t>Crear interfaz de registro y login</t>
-  </si>
-  <si>
-    <t>Pruebas de seguridad y sesión</t>
-  </si>
-  <si>
-    <t>Crear consultas SQL de resumen</t>
-  </si>
-  <si>
-    <t>Implementar dashboard con métricas (usuarios activos, progreso)</t>
-  </si>
-  <si>
-    <t>Conectar con frontend (gráficos dinámicos)</t>
-  </si>
-  <si>
-    <t>Crear script de backup automático de BD</t>
-  </si>
-  <si>
-    <t>Integrar restauración manual desde panel admin</t>
-  </si>
-  <si>
-    <t>Pruebas de recuperación de datos</t>
-  </si>
-  <si>
-    <t>TAREAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRINT 1 </t>
   </si>
   <si>
     <t>Real</t>
@@ -521,11 +446,6 @@
 - Visualizar resultados</t>
   </si>
   <si>
-    <t>Integrar gráficos de progreso por objetivo 
-- Integrar grafico de calorías  por dieta
-- Integrar grafico de comparación según medidas</t>
-  </si>
-  <si>
     <t>Visualizar dietas de cada usuario 
 - Validación de dietas
 - Registro de validación
@@ -533,13 +453,64 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Programar fórmula Harris-Benedict 
+-Crear funciones de distribución de macronutrientes
+- Pruebas de validacion</t>
+  </si>
+  <si>
+    <t>Implementar sustitución de alimentos -Crear funciones internas para sugerencias
+- Validar con nutriólogo los intercambios</t>
+  </si>
+  <si>
+    <t>Integrar gráficos 
+- Mostrar evolución temporal de medidas y peso
+- Probar visualización responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validar sugerencias dietéticas en base a las calorías que se gastan y que se requieren 
+-Validar planes dietéticos en función a la información nutricional por alimentos.
+-Validar los resultados dietéticos en base a los objetivos del usuario. </t>
+  </si>
+  <si>
+    <t>Selección de dietética
+- Comparar calorías consumidas vs planificadas
+- Vista de Selección dietética
+- Validación del cálculo automático</t>
+  </si>
+  <si>
+    <t>Funciones historial de peso
+- Integrar grafico de historia de peso 
+- Integrar cards de comparación según medidas
+- Visualización de cards de progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion de dietas activas </t>
+  </si>
+  <si>
+    <t>HU-03</t>
+  </si>
+  <si>
+    <t>Ver dietas validadas o rechazadas 
+-Ver alimentos por dieta
+-Ver calorías por dieta</t>
+  </si>
+  <si>
+    <t>HU-03: Como administrador, quiero supervisar las dietas aprobadas por los nutriólogos para garantizar la calidad y seguridad alimentaria.</t>
+  </si>
+  <si>
+    <t>HU- 20</t>
+  </si>
+  <si>
+    <t>Crear script de backup automático de BD- Integrar restauración manual desde panel admin- Pruebas de recuperación de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +539,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -589,23 +567,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,62 +588,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,36 +615,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,23 +628,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,40 +646,22 @@
   </cellStyles>
   <dxfs count="84">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -821,22 +683,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -858,12 +726,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -891,16 +763,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -928,24 +808,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -973,16 +845,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1016,15 +896,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1062,6 +933,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1093,20 +973,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1134,16 +1010,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1261,11 +1141,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-PE"/>
-              <a:t>BURNDOWN CHART</a:t>
+              <a:t>BurdownChart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1298,25 +1186,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 '!$F$1</c:f>
+              <c:f>'Sprint 1 '!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esperado</c:v>
+                  <c:v>Fin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1325,14 +1213,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 1 '!$E$2:$E$4</c:f>
+              <c:f>'Sprint 1 '!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45934</c:v>
                 </c:pt>
@@ -1340,33 +1240,39 @@
                   <c:v>45939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45956</c:v>
+                  <c:v>45939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 1 '!$F$2:$F$4</c:f>
+              <c:f>'Sprint 1 '!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7049-4871-AA35-DAB1A4979080}"/>
+              <c16:uniqueId val="{00000000-A9B2-4FD2-B9BD-0C269A0BEB22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1375,17 +1281,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 '!$G$1</c:f>
+              <c:f>'Sprint 1 '!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real2</c:v>
+                  <c:v>Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1394,14 +1300,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 1 '!$E$2:$E$4</c:f>
+              <c:f>'Sprint 1 '!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45934</c:v>
                 </c:pt>
@@ -1411,15 +1329,18 @@
                 <c:pt idx="2">
                   <c:v>45956</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45956</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 1 '!$G$2:$G$4</c:f>
+              <c:f>'Sprint 1 '!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -1429,13 +1350,16 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7049-4871-AA35-DAB1A4979080}"/>
+              <c16:uniqueId val="{00000001-A9B2-4FD2-B9BD-0C269A0BEB22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1447,19 +1371,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1258400896"/>
-        <c:axId val="1260183872"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1258400896"/>
+        <c:axId val="931174432"/>
+        <c:axId val="951206832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931174432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1467,8 +1404,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1495,14 +1432,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1260183872"/>
+        <c:crossAx val="951206832"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1260183872"/>
+        <c:axId val="951206832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,8 +1463,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1553,9 +1494,9 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258400896"/>
+        <c:crossAx val="931174432"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3706,7 +3647,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3733,8 +3674,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3814,11 +3755,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3829,11 +3765,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3845,7 +3776,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3865,9 +3796,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3880,10 +3808,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3923,22 +3851,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4043,8 +3972,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4176,19 +4105,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4202,6 +4132,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6290,26 +6231,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1850572</xdr:colOff>
+      <xdr:colOff>1641023</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>234043</xdr:rowOff>
+      <xdr:colOff>298814</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40B3550-E95D-4F8D-9F45-D0EAD79A743E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB178BA-62CC-4E3D-BF53-9A9F55823DC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6497,8 +6440,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="83">
-  <autoFilter ref="A1:G4" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD16BBC-76A7-4CBA-BD96-3B16F878E2EB}" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="83">
+  <autoFilter ref="A1:G5" xr:uid="{24F748EC-318B-4855-BCC0-0DBC9C8A5746}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E093E692-05C3-4735-978E-D768DE69C78D}" name="Historias de Usuario" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{35C8A382-20E4-445F-9C96-2559CD04C663}" name="Observaciones" dataDxfId="81"/>
@@ -6513,155 +6456,155 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="J1:N7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A5E22D20-0412-4B20-B6F6-E20FCAE65091}" name="Table11" displayName="Table11" ref="J1:N7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="J1:N7" xr:uid="{C396598D-C1B2-4EDD-96A4-689190CBEF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{28EE093D-5249-49C9-B6A0-1FD25097DE2A}" name="ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{FA6D1229-FD84-4D2A-813A-2AEA4E6BEAC3}" name="Historia de Usuario" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E5454D72-00EF-427B-9AED-6F323451CBB2}" name="Tareas / Actividades" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D2518746-B270-4548-868C-AE977DC56C2A}" name="Responsable" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{65FE5E18-EB2E-4BC9-BACE-5606BAF908C7}" name="Estado" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D0FE58DA-BDB6-4A7A-ABD0-C1BCE573E051}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G6" xr:uid="{36140BD1-2857-4354-99CF-65B2C864054D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A3ECDFC0-0119-4E81-8248-735E24E3A50C}" name="Sprint" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{90220717-9109-4AC8-A400-0997D4D01066}" name="Épica" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{98DAC554-28EE-4D24-BB44-681616A59DB1}" name="Historias" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{57F5AACE-D807-4B9A-99E2-35CB3A260C48}" name="Tareas promedio" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{972F0FF7-7B5C-457D-B9AA-BC30C5C99195}" name="Puntos totales" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{260E1B46-1DCC-4DE4-90EE-1DA31F556276}" name="Duración" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{5B2A6FB1-2AE1-4691-B744-886702761CF2}" name="Objetivo" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="J1:N4" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D7FE01E-8BFD-4557-8ABB-277B2D16BD1D}" name="Table7" displayName="Table7" ref="J1:N5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="J1:N5" xr:uid="{57F0D9A7-1F1F-4171-8A4B-62F309C48136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{BEA83294-6A18-42BB-B11B-0502438CC099}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1A33C792-A304-4AE5-9F2D-C3BAC8C06183}" name="Historia de Usuario" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BF3DAA27-8C45-4CFF-B21D-90A5DA20614E}" name="Tareas / Actividades Técnicas" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FEBBCEB6-57C5-4054-AFF3-09743B4D7B77}" name="Responsable" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2655B592-AE60-4AF0-8400-A491855DABCF}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86670D76-0C19-48B7-8C69-376882E9C5A5}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0" headerRowDxfId="75">
   <autoFilter ref="A1:F4" xr:uid="{E46CBD97-9127-4EC7-A76C-6EB5EBAE965A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{BA6DF882-EE40-476C-9EFC-3133B0684925}" name="Historias de Usuario" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{D9B5163F-2E11-4808-8CA4-D1CCA461969D}" name="Observaciones" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{14B5DC89-4EF5-49B0-816A-2E24A86AC793}" name="Inicio" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{D6C6F3AD-089E-4BAC-BF1E-D5F5CDDCD5DE}" name="Fin" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{31250C99-B8D8-4835-982E-FE67EAC05DDD}" name="Fin real" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{C81D63E5-3424-4181-8676-CD49DF47C704}" name="Esperado" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B8C64535-8DAD-46AF-A834-BCDC56173B9E}" name="Table8" displayName="Table8" ref="I1:M4" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="I1:M4" xr:uid="{AB1E57C0-467F-44F0-B371-05901AFD95F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{22AF7A06-F85C-4498-9E50-6A63E63B44B3}" name="ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{BFA8754B-9EFF-426F-9E72-CE4B22401BF3}" name="Historia" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9970E561-8A84-41BD-AF63-40C524209079}" name="Tareas / Actividades" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{DC12B0AC-B9A6-4F10-9BFC-C1290A58EC33}" name="Responsable" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{946E27B7-2113-4FBD-B903-F96D85DB6542}" name="Estado" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1ADFA7C0-8565-4A68-8322-B63EC9B18BF9}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:G5" xr:uid="{3A0FA1D2-2F09-414E-A712-1DD789816677}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{D3A42CD4-A8D1-4AAD-B723-77E241709C9F}" name="Historias de Usuario" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{A7101206-0493-4473-B3A0-F64FB9ED81D4}" name="Observaciones" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{BCBD9DC0-9F99-4885-8F6A-616E3EA9344E}" name="Inicio" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{1961FEF6-E92E-44D1-A7A7-4F9976DDF655}" name="Fin" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{9DC2C5A5-3EB3-4DE7-B0C3-34D2A5A7639E}" name="Fin Real" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{B5E019CC-E2CA-49E7-9ACC-8AEA34856275}" name="Puntos" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{69BC9BCF-3433-451E-923D-B29AF2B0C3B0}" name="Real" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{597891A9-4490-41DE-B6B6-27BF9D57E64A}" name="Table9" displayName="Table9" ref="I1:M5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="I1:M5" xr:uid="{6EA5FF5D-303B-47DA-8671-AA9BDBBE3AB1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D38AB8C0-6910-4139-99CE-23B6526AB348}" name="ID" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{49E76221-10CE-49C3-B206-98486DE47326}" name="Historia de Usuario" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{25DF9D1B-DD40-4AD6-AE21-71BD43D3B2BE}" name="Tareas / Actividades" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{1D59739A-6AD8-40F3-8EF1-8071A3600036}" name="Responsable" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{E25EDDE4-F757-4E99-93D1-3F20D175D9BF}" name="Estado" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4C0CAFD9-DCBA-4C79-87F4-27B771AF5505}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:G4" xr:uid="{E8A03F14-0939-4B33-BA50-2E152FC11783}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{2700169D-C943-4B60-8B33-90815354B35D}" name="Historias de Usuario" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{3D265D97-82AD-4E8D-BDAE-A226B79CD457}" name="Observaciones" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B10E452E-2553-454F-B74E-6BAA647B0C0E}" name="Inicio" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{463884B4-07B7-4D83-9E8E-0FA3177ADB03}" name="Fin" dataDxfId="41">
       <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFF9BE69-7D47-4171-A5DD-3B8A72D09E5A}" name="Fin2" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{CFF9BE69-7D47-4171-A5DD-3B8A72D09E5A}" name="Fin2" dataDxfId="40">
       <calculatedColumnFormula>+Table5[[#This Row],[Inicio]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC7CD9BC-BB4A-4092-A8C9-5AD0AC476327}" name="Esperado" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Real" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{BC7CD9BC-BB4A-4092-A8C9-5AD0AC476327}" name="Esperado" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5FA19ED7-47FE-4C52-9B48-98C04EDA85E7}" name="Real" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D04F5D-4DA9-4EC5-8B62-C526D1D60754}" name="Table10" displayName="Table10" ref="J1:N4" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="J1:N4" xr:uid="{8B3B822A-9D65-491D-BD34-38117E174830}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{CE68E439-0EAA-4E12-A396-0E9E594FF481}" name="ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{82A6BD14-78BC-444F-9C6A-83DF22A810A2}" name="Historia de Usuario" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{B11D97D7-D383-46EF-BEB4-877A64049C20}" name="Tareas / Actividades" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{48AADF17-8EFA-4D6C-AE10-E90945A69C74}" name="Responsable" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{2AF34DCF-3760-40F2-9102-8844A5BDBD05}" name="Estado" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:G7" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5DD6B28-3BCD-4005-B2E1-456C3A701567}" name="Table6" displayName="Table6" ref="A1:G7" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:G7" xr:uid="{19214B5D-F8DC-4A15-8E72-4476E189B1D7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Real" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{55811D11-8E57-4CC3-BA9E-9B3C59346D4A}" name="Esperado" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{E98C7EF1-F8F7-4B39-9E39-578A2A8E077C}" name="Historias de Usuario" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B80B1AC0-0334-4AEE-AA67-80DDEF410BC6}" name="Observaciones" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{FB7D837E-C528-4C63-A1E2-A1AD9203C11F}" name="Inicio" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{26C8AAA5-A94E-4A8B-8E40-D6CD8CDAC116}" name="Real" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{55811D11-8E57-4CC3-BA9E-9B3C59346D4A}" name="Esperado" dataDxfId="25">
       <calculatedColumnFormula>+Table6[[#This Row],[Inicio]]+3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7E5FBBF2-041F-44AE-BC6A-F860C25AE355}" name="Puntos" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6C675A60-4552-427E-8B6A-E6E86C953BEC}" name="Total" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{7E5FBBF2-041F-44AE-BC6A-F860C25AE355}" name="Puntos" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{6C675A60-4552-427E-8B6A-E6E86C953BEC}" name="Total" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6964,10 +6907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF168A87-6B13-40AD-99BE-AE163F7E8306}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N5" sqref="J1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6977,7 +6920,7 @@
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="22"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="29.88671875" customWidth="1"/>
@@ -7000,13 +6943,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>137</v>
+        <v>111</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2" t="s">
@@ -7042,9 +6985,9 @@
         <v>45934</v>
       </c>
       <c r="F2" s="1">
-        <v>16</v>
-      </c>
-      <c r="G2" s="20">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10">
         <v>16</v>
       </c>
       <c r="H2" s="4"/>
@@ -7061,7 +7004,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="103.8" customHeight="1">
@@ -7081,34 +7024,34 @@
         <v>45939</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
         <v>8</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="88.8" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4">
         <v>45931</v>
@@ -7116,118 +7059,71 @@
       <c r="D4" s="4">
         <v>45939</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="8">
         <v>45956</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="11">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="8"/>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="J10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.8">
-      <c r="J11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="57.6">
-      <c r="J12" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="57.6">
-      <c r="J13" s="27"/>
-      <c r="K13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="43.2">
-      <c r="J14" s="27"/>
-      <c r="K14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.8">
-      <c r="J15" s="27"/>
-      <c r="K15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.8">
-      <c r="J16" s="28"/>
-      <c r="K16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
+    <row r="5" spans="1:14" ht="57.6">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45931</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45939</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45956</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J12:J16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7242,17 +7138,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BBF06-5876-4115-ABA4-B7053C7C3755}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -7266,22 +7163,22 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -7306,26 +7203,26 @@
       <c r="E2" s="4">
         <v>45945</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="15">
         <v>13</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="15">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="99.6" customHeight="1">
@@ -7344,26 +7241,26 @@
       <c r="E3" s="4">
         <v>45947</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="13">
         <v>5</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="13">
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="99.6" customHeight="1">
@@ -7382,26 +7279,26 @@
       <c r="E4" s="4">
         <v>45960</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="15">
         <v>0</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7420,13 +7317,14 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K5" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="31.33203125" customWidth="1"/>
-    <col min="10" max="11" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
   </cols>
@@ -7445,13 +7343,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -7460,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -7492,19 +7390,19 @@
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -7530,19 +7428,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -7568,19 +7466,19 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="130.80000000000001" customHeight="1">
@@ -7606,27 +7504,28 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7636,14 +7535,15 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L4" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="11" max="12" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
@@ -7662,13 +7562,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -7677,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
@@ -7705,26 +7605,26 @@
         <f>+Table5[[#This Row],[Inicio]]+2</f>
         <v>45970</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="10">
         <v>13</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="10">
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="133.80000000000001" customHeight="1">
@@ -7746,29 +7646,29 @@
         <f>+Table5[[#This Row],[Inicio]]+2</f>
         <v>45972</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="10">
         <v>8</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="10">
         <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="133.80000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="171" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -7786,26 +7686,26 @@
       <c r="E4" s="4">
         <v>45979</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7822,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FA179-2D3F-4332-84D1-DDF21F5C3B71}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4"/>
@@ -7848,16 +7748,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>155</v>
+      <c r="G1" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -7866,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
@@ -7877,7 +7777,7 @@
     </row>
     <row r="2" spans="1:14" ht="85.8" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7891,34 +7791,34 @@
       <c r="E2" s="4">
         <v>45974</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="10">
         <v>24</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="10">
         <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="85.8" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4">
         <f>+D2</f>
@@ -7932,26 +7832,26 @@
         <f>+Table6[[#This Row],[Inicio]]+3</f>
         <v>45977</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="10">
         <v>19</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="10">
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="85.8" customHeight="1">
@@ -7973,34 +7873,34 @@
         <f>+Table6[[#This Row],[Inicio]]+3</f>
         <v>45979</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="10">
         <v>14</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="10">
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="109.8" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -8013,26 +7913,26 @@
       <c r="E5" s="4">
         <v>45983</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="10">
         <v>11</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="10">
         <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85.8" customHeight="1">
@@ -8054,26 +7954,26 @@
         <f>+E5+1</f>
         <v>45984</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="10">
         <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="85.8" customHeight="1">
@@ -8095,26 +7995,26 @@
         <f>+E6+2</f>
         <v>45986</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -8133,7 +8033,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8147,25 +8047,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8">
@@ -8173,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -8185,10 +8085,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2">
@@ -8196,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8208,10 +8108,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2">
@@ -8219,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -8231,10 +8131,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2">
@@ -8242,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -8254,10 +8154,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2">
@@ -8265,7 +8165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -8277,10 +8177,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
